--- a/kajino.xlsx
+++ b/kajino.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="400" windowWidth="28800" windowHeight="9560" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,6 +217,13 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -538,7 +545,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,6 +707,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,11 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1102,15 +1110,18 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="14.5" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="70"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1156,7 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
     </row>
-    <row r="2" spans="1:19" ht="18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1164,9 +1175,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17"/>
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <f>(H2/$N$2)</f>
+        <v>0</v>
+      </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="2"/>
@@ -1264,11 +1279,11 @@
         <f t="shared" ref="N4:N15" si="2">(M4/$N$2)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="65">
+      <c r="O4" s="59">
         <f>G4+J4+M4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="66" t="str">
+      <c r="P4" s="60" t="str">
         <f>IF(OR(O4=0,$N$2=0),"",O4*37/$O$2)</f>
         <v/>
       </c>
@@ -1314,11 +1329,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="61">
         <f t="shared" ref="O5:O15" si="3">G5+J5+M5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="66" t="str">
+      <c r="P5" s="60" t="str">
         <f t="shared" ref="P5:P15" si="4">IF(OR(O5=0,$N$2=0),"",O5*37/$O$2)</f>
         <v/>
       </c>
@@ -1366,11 +1381,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P6" s="66" t="str">
+      <c r="P6" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1418,11 +1433,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="66" t="str">
+      <c r="P7" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1468,11 +1483,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="66" t="str">
+      <c r="P8" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1518,11 +1533,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="66" t="str">
+      <c r="P9" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1568,11 +1583,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="66" t="str">
+      <c r="P10" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1618,11 +1633,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="66" t="str">
+      <c r="P11" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1670,11 +1685,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="66" t="str">
+      <c r="P12" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1722,11 +1737,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="66" t="str">
+      <c r="P13" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1772,11 +1787,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="66" t="str">
+      <c r="P14" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1822,11 +1837,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="69" t="str">
+      <c r="P15" s="63" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -1834,7 +1849,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="1:19" ht="18">
+    <row r="16" spans="1:19">
       <c r="A16" s="29"/>
       <c r="B16" s="2"/>
       <c r="C16" s="12">
@@ -1857,7 +1872,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:19" ht="18">
+    <row r="17" spans="1:19">
       <c r="A17" s="29"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1893,7 +1908,7 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="1:19" ht="18">
+    <row r="18" spans="1:19">
       <c r="A18" s="29"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1950,12 +1965,12 @@
       <c r="M19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="59" t="s">
+      <c r="N19" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="66"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
     </row>
@@ -2349,16 +2364,16 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="1:19" ht="18">
+    <row r="26" spans="1:19">
       <c r="A26" s="29"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="11"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2372,7 +2387,7 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="1:19" ht="18">
+    <row r="27" spans="1:19">
       <c r="A27" s="29"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2393,24 +2408,24 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19" ht="18">
+    <row r="28" spans="1:19">
       <c r="A28" s="29"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="61"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
@@ -2817,34 +2832,34 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="1:19" ht="18">
+    <row r="36" spans="1:19">
       <c r="A36" s="29"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="64" t="s">
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="64" t="s">
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="61"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="66"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:19" ht="18">
+    <row r="37" spans="1:19">
       <c r="A37" s="29"/>
       <c r="B37" s="2"/>
       <c r="C37" s="11"/>
@@ -2864,6 +2879,1413 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="29"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="29"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="29"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="29"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="29"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="29"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="29"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="29"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="29"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="29"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="29"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="29"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="29"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="29"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="29"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="29"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="29"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="29"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="29"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="29"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="29"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="29"/>
+    </row>
+    <row r="60" spans="1:1" ht="18" customHeight="1">
+      <c r="A60" s="29"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="29"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="29"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="29"/>
+    </row>
+    <row r="64" spans="1:1" ht="18" customHeight="1">
+      <c r="A64" s="29"/>
+    </row>
+    <row r="65" spans="1:1" ht="18" customHeight="1">
+      <c r="A65" s="29"/>
+    </row>
+    <row r="66" spans="1:1" ht="18" customHeight="1">
+      <c r="A66" s="29"/>
+    </row>
+    <row r="67" spans="1:1" ht="18" customHeight="1">
+      <c r="A67" s="29"/>
+    </row>
+    <row r="68" spans="1:1" ht="18" customHeight="1">
+      <c r="A68" s="29"/>
+    </row>
+    <row r="69" spans="1:1" ht="18" customHeight="1">
+      <c r="A69" s="29"/>
+    </row>
+    <row r="70" spans="1:1" ht="18" customHeight="1">
+      <c r="A70" s="29"/>
+    </row>
+    <row r="71" spans="1:1" ht="18" customHeight="1">
+      <c r="A71" s="29"/>
+    </row>
+    <row r="72" spans="1:1" ht="18" customHeight="1">
+      <c r="A72" s="29"/>
+    </row>
+    <row r="73" spans="1:1" ht="18" customHeight="1">
+      <c r="A73" s="29"/>
+    </row>
+    <row r="74" spans="1:1" ht="18" customHeight="1">
+      <c r="A74" s="29"/>
+    </row>
+    <row r="75" spans="1:1" ht="18" customHeight="1">
+      <c r="A75" s="29"/>
+    </row>
+    <row r="76" spans="1:1" ht="18" customHeight="1">
+      <c r="A76" s="29"/>
+    </row>
+    <row r="77" spans="1:1" ht="18" customHeight="1">
+      <c r="A77" s="29"/>
+    </row>
+    <row r="78" spans="1:1" ht="18" customHeight="1">
+      <c r="A78" s="29"/>
+    </row>
+    <row r="79" spans="1:1" ht="18" customHeight="1">
+      <c r="A79" s="29"/>
+    </row>
+    <row r="80" spans="1:1" ht="18" customHeight="1">
+      <c r="A80" s="29"/>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1">
+      <c r="A81" s="29"/>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1">
+      <c r="A82" s="29"/>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1">
+      <c r="A83" s="29"/>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1">
+      <c r="A84" s="29"/>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1">
+      <c r="A85" s="29"/>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1">
+      <c r="A86" s="29"/>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1">
+      <c r="A87" s="29"/>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1">
+      <c r="A88" s="29"/>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1">
+      <c r="A89" s="29"/>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1">
+      <c r="A90" s="29"/>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1">
+      <c r="A91" s="29"/>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1">
+      <c r="A92" s="29"/>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1">
+      <c r="A93" s="29"/>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1">
+      <c r="A94" s="29"/>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1">
+      <c r="A95" s="29"/>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1">
+      <c r="A96" s="29"/>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1">
+      <c r="A97" s="29"/>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1">
+      <c r="A98" s="29"/>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1">
+      <c r="A99" s="29"/>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1">
+      <c r="A100" s="29"/>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1">
+      <c r="A101" s="29"/>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1">
+      <c r="A102" s="29"/>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1">
+      <c r="A103" s="29"/>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1">
+      <c r="A104" s="29"/>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1">
+      <c r="A105" s="29"/>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1">
+      <c r="A106" s="29"/>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1">
+      <c r="A107" s="29"/>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1">
+      <c r="A108" s="29"/>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1">
+      <c r="A109" s="29"/>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1">
+      <c r="A110" s="29"/>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1">
+      <c r="A111" s="29"/>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1">
+      <c r="A112" s="29"/>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1">
+      <c r="A113" s="29"/>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1">
+      <c r="A114" s="29"/>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1">
+      <c r="A115" s="29"/>
+    </row>
+    <row r="116" spans="1:1" ht="18" customHeight="1">
+      <c r="A116" s="29"/>
+    </row>
+    <row r="117" spans="1:1" ht="18" customHeight="1">
+      <c r="A117" s="29"/>
+    </row>
+    <row r="118" spans="1:1" ht="18" customHeight="1">
+      <c r="A118" s="29"/>
+    </row>
+    <row r="119" spans="1:1" ht="18" customHeight="1">
+      <c r="A119" s="29"/>
+    </row>
+    <row r="120" spans="1:1" ht="18" customHeight="1">
+      <c r="A120" s="29"/>
+    </row>
+    <row r="121" spans="1:1" ht="18" customHeight="1">
+      <c r="A121" s="29"/>
+    </row>
+    <row r="122" spans="1:1" ht="18" customHeight="1">
+      <c r="A122" s="29"/>
+    </row>
+    <row r="123" spans="1:1" ht="18" customHeight="1">
+      <c r="A123" s="29"/>
+    </row>
+    <row r="124" spans="1:1" ht="18" customHeight="1">
+      <c r="A124" s="29"/>
+    </row>
+    <row r="125" spans="1:1" ht="18" customHeight="1">
+      <c r="A125" s="29"/>
+    </row>
+    <row r="126" spans="1:1" ht="18" customHeight="1">
+      <c r="A126" s="29"/>
+    </row>
+    <row r="127" spans="1:1" ht="18" customHeight="1">
+      <c r="A127" s="29"/>
+    </row>
+    <row r="128" spans="1:1" ht="18" customHeight="1">
+      <c r="A128" s="29"/>
+    </row>
+    <row r="129" spans="1:1" ht="18" customHeight="1">
+      <c r="A129" s="29"/>
+    </row>
+    <row r="130" spans="1:1" ht="18" customHeight="1">
+      <c r="A130" s="29"/>
+    </row>
+    <row r="131" spans="1:1" ht="18" customHeight="1">
+      <c r="A131" s="29"/>
+    </row>
+    <row r="132" spans="1:1" ht="18" customHeight="1">
+      <c r="A132" s="29"/>
+    </row>
+    <row r="133" spans="1:1" ht="18" customHeight="1">
+      <c r="A133" s="29"/>
+    </row>
+    <row r="134" spans="1:1" ht="18" customHeight="1">
+      <c r="A134" s="29"/>
+    </row>
+    <row r="135" spans="1:1" ht="18" customHeight="1">
+      <c r="A135" s="29"/>
+    </row>
+    <row r="136" spans="1:1" ht="18" customHeight="1">
+      <c r="A136" s="29"/>
+    </row>
+    <row r="137" spans="1:1" ht="18" customHeight="1">
+      <c r="A137" s="29"/>
+    </row>
+    <row r="138" spans="1:1" ht="18" customHeight="1">
+      <c r="A138" s="29"/>
+    </row>
+    <row r="139" spans="1:1" ht="18" customHeight="1">
+      <c r="A139" s="29"/>
+    </row>
+    <row r="140" spans="1:1" ht="18" customHeight="1">
+      <c r="A140" s="29"/>
+    </row>
+    <row r="141" spans="1:1" ht="18" customHeight="1">
+      <c r="A141" s="29"/>
+    </row>
+    <row r="142" spans="1:1" ht="18" customHeight="1">
+      <c r="A142" s="29"/>
+    </row>
+    <row r="143" spans="1:1" ht="18" customHeight="1">
+      <c r="A143" s="29"/>
+    </row>
+    <row r="144" spans="1:1" ht="18" customHeight="1">
+      <c r="A144" s="29"/>
+    </row>
+    <row r="145" spans="1:1" ht="18" customHeight="1">
+      <c r="A145" s="29"/>
+    </row>
+    <row r="146" spans="1:1" ht="18" customHeight="1">
+      <c r="A146" s="29"/>
+    </row>
+    <row r="147" spans="1:1" ht="18" customHeight="1">
+      <c r="A147" s="29"/>
+    </row>
+    <row r="148" spans="1:1" ht="18" customHeight="1">
+      <c r="A148" s="29"/>
+    </row>
+    <row r="149" spans="1:1" ht="18" customHeight="1">
+      <c r="A149" s="29"/>
+    </row>
+    <row r="150" spans="1:1" ht="18" customHeight="1">
+      <c r="A150" s="29"/>
+    </row>
+    <row r="151" spans="1:1" ht="18" customHeight="1">
+      <c r="A151" s="29"/>
+    </row>
+    <row r="152" spans="1:1" ht="18" customHeight="1">
+      <c r="A152" s="29"/>
+    </row>
+    <row r="153" spans="1:1" ht="18" customHeight="1">
+      <c r="A153" s="29"/>
+    </row>
+    <row r="154" spans="1:1" ht="18" customHeight="1">
+      <c r="A154" s="29"/>
+    </row>
+    <row r="155" spans="1:1" ht="18" customHeight="1">
+      <c r="A155" s="29"/>
+    </row>
+    <row r="156" spans="1:1" ht="18" customHeight="1">
+      <c r="A156" s="29"/>
+    </row>
+    <row r="157" spans="1:1" ht="18" customHeight="1">
+      <c r="A157" s="29"/>
+    </row>
+    <row r="158" spans="1:1" ht="18" customHeight="1">
+      <c r="A158" s="29"/>
+    </row>
+    <row r="159" spans="1:1" ht="18" customHeight="1">
+      <c r="A159" s="29"/>
+    </row>
+    <row r="160" spans="1:1" ht="18" customHeight="1">
+      <c r="A160" s="29"/>
+    </row>
+    <row r="161" spans="1:1" ht="18" customHeight="1">
+      <c r="A161" s="29"/>
+    </row>
+    <row r="162" spans="1:1" ht="18" customHeight="1">
+      <c r="A162" s="29"/>
+    </row>
+    <row r="163" spans="1:1" ht="18" customHeight="1">
+      <c r="A163" s="29"/>
+    </row>
+    <row r="164" spans="1:1" ht="18" customHeight="1">
+      <c r="A164" s="29"/>
+    </row>
+    <row r="165" spans="1:1" ht="18" customHeight="1">
+      <c r="A165" s="29"/>
+    </row>
+    <row r="166" spans="1:1" ht="18" customHeight="1">
+      <c r="A166" s="29"/>
+    </row>
+    <row r="167" spans="1:1" ht="18" customHeight="1">
+      <c r="A167" s="29"/>
+    </row>
+    <row r="168" spans="1:1" ht="18" customHeight="1">
+      <c r="A168" s="29"/>
+    </row>
+    <row r="169" spans="1:1" ht="18" customHeight="1">
+      <c r="A169" s="29"/>
+    </row>
+    <row r="170" spans="1:1" ht="18" customHeight="1">
+      <c r="A170" s="29"/>
+    </row>
+    <row r="171" spans="1:1" ht="18" customHeight="1">
+      <c r="A171" s="29"/>
+    </row>
+    <row r="172" spans="1:1" ht="18" customHeight="1">
+      <c r="A172" s="29"/>
+    </row>
+    <row r="173" spans="1:1" ht="18" customHeight="1">
+      <c r="A173" s="29"/>
+    </row>
+    <row r="174" spans="1:1" ht="18" customHeight="1">
+      <c r="A174" s="29"/>
+    </row>
+    <row r="175" spans="1:1" ht="18" customHeight="1">
+      <c r="A175" s="29"/>
+    </row>
+    <row r="176" spans="1:1" ht="18" customHeight="1">
+      <c r="A176" s="29"/>
+    </row>
+    <row r="177" spans="1:1" ht="18" customHeight="1">
+      <c r="A177" s="29"/>
+    </row>
+    <row r="178" spans="1:1" ht="18" customHeight="1">
+      <c r="A178" s="29"/>
+    </row>
+    <row r="179" spans="1:1" ht="18" customHeight="1">
+      <c r="A179" s="29"/>
+    </row>
+    <row r="180" spans="1:1" ht="18" customHeight="1">
+      <c r="A180" s="29"/>
+    </row>
+    <row r="181" spans="1:1" ht="18" customHeight="1">
+      <c r="A181" s="29"/>
+    </row>
+    <row r="182" spans="1:1" ht="18" customHeight="1">
+      <c r="A182" s="29"/>
+    </row>
+    <row r="183" spans="1:1" ht="18" customHeight="1">
+      <c r="A183" s="29"/>
+    </row>
+    <row r="184" spans="1:1" ht="18" customHeight="1">
+      <c r="A184" s="29"/>
+    </row>
+    <row r="185" spans="1:1" ht="18" customHeight="1">
+      <c r="A185" s="29"/>
+    </row>
+    <row r="186" spans="1:1" ht="18" customHeight="1">
+      <c r="A186" s="29"/>
+    </row>
+    <row r="187" spans="1:1" ht="18" customHeight="1">
+      <c r="A187" s="29"/>
+    </row>
+    <row r="188" spans="1:1" ht="18" customHeight="1">
+      <c r="A188" s="29"/>
+    </row>
+    <row r="189" spans="1:1" ht="18" customHeight="1">
+      <c r="A189" s="29"/>
+    </row>
+    <row r="190" spans="1:1" ht="18" customHeight="1">
+      <c r="A190" s="29"/>
+    </row>
+    <row r="191" spans="1:1" ht="18" customHeight="1">
+      <c r="A191" s="29"/>
+    </row>
+    <row r="192" spans="1:1" ht="18" customHeight="1">
+      <c r="A192" s="29"/>
+    </row>
+    <row r="193" spans="1:1" ht="18" customHeight="1">
+      <c r="A193" s="29"/>
+    </row>
+    <row r="194" spans="1:1" ht="18" customHeight="1">
+      <c r="A194" s="29"/>
+    </row>
+    <row r="195" spans="1:1" ht="18" customHeight="1">
+      <c r="A195" s="29"/>
+    </row>
+    <row r="196" spans="1:1" ht="18" customHeight="1">
+      <c r="A196" s="29"/>
+    </row>
+    <row r="197" spans="1:1" ht="18" customHeight="1">
+      <c r="A197" s="29"/>
+    </row>
+    <row r="198" spans="1:1" ht="18" customHeight="1">
+      <c r="A198" s="29"/>
+    </row>
+    <row r="199" spans="1:1" ht="18" customHeight="1">
+      <c r="A199" s="29"/>
+    </row>
+    <row r="200" spans="1:1" ht="18" customHeight="1">
+      <c r="A200" s="29"/>
+    </row>
+    <row r="201" spans="1:1" ht="18" customHeight="1">
+      <c r="A201" s="29"/>
+    </row>
+    <row r="202" spans="1:1" ht="18" customHeight="1">
+      <c r="A202" s="29"/>
+    </row>
+    <row r="203" spans="1:1" ht="18" customHeight="1">
+      <c r="A203" s="29"/>
+    </row>
+    <row r="204" spans="1:1" ht="18" customHeight="1">
+      <c r="A204" s="29"/>
+    </row>
+    <row r="205" spans="1:1" ht="18" customHeight="1">
+      <c r="A205" s="29"/>
+    </row>
+    <row r="206" spans="1:1" ht="18" customHeight="1">
+      <c r="A206" s="29"/>
+    </row>
+    <row r="207" spans="1:1" ht="18" customHeight="1">
+      <c r="A207" s="29"/>
+    </row>
+    <row r="208" spans="1:1" ht="18" customHeight="1">
+      <c r="A208" s="29"/>
+    </row>
+    <row r="209" spans="1:1" ht="18" customHeight="1">
+      <c r="A209" s="29"/>
+    </row>
+    <row r="210" spans="1:1" ht="18" customHeight="1">
+      <c r="A210" s="29"/>
+    </row>
+    <row r="211" spans="1:1" ht="18" customHeight="1">
+      <c r="A211" s="29"/>
+    </row>
+    <row r="212" spans="1:1" ht="18" customHeight="1">
+      <c r="A212" s="29"/>
+    </row>
+    <row r="213" spans="1:1" ht="18" customHeight="1">
+      <c r="A213" s="29"/>
+    </row>
+    <row r="214" spans="1:1" ht="18" customHeight="1">
+      <c r="A214" s="29"/>
+    </row>
+    <row r="215" spans="1:1" ht="18" customHeight="1">
+      <c r="A215" s="29"/>
+    </row>
+    <row r="216" spans="1:1" ht="18" customHeight="1">
+      <c r="A216" s="29"/>
+    </row>
+    <row r="217" spans="1:1" ht="18" customHeight="1">
+      <c r="A217" s="29"/>
+    </row>
+    <row r="218" spans="1:1" ht="18" customHeight="1">
+      <c r="A218" s="29"/>
+    </row>
+    <row r="219" spans="1:1" ht="18" customHeight="1">
+      <c r="A219" s="29"/>
+    </row>
+    <row r="220" spans="1:1" ht="18" customHeight="1">
+      <c r="A220" s="29"/>
+    </row>
+    <row r="221" spans="1:1" ht="18" customHeight="1">
+      <c r="A221" s="29"/>
+    </row>
+    <row r="222" spans="1:1" ht="18" customHeight="1">
+      <c r="A222" s="29"/>
+    </row>
+    <row r="223" spans="1:1" ht="18" customHeight="1">
+      <c r="A223" s="29"/>
+    </row>
+    <row r="224" spans="1:1" ht="18" customHeight="1">
+      <c r="A224" s="29"/>
+    </row>
+    <row r="225" spans="1:1" ht="18" customHeight="1">
+      <c r="A225" s="29"/>
+    </row>
+    <row r="226" spans="1:1" ht="18" customHeight="1">
+      <c r="A226" s="29"/>
+    </row>
+    <row r="227" spans="1:1" ht="18" customHeight="1">
+      <c r="A227" s="29"/>
+    </row>
+    <row r="228" spans="1:1" ht="18" customHeight="1">
+      <c r="A228" s="29"/>
+    </row>
+    <row r="229" spans="1:1" ht="18" customHeight="1">
+      <c r="A229" s="29"/>
+    </row>
+    <row r="230" spans="1:1" ht="18" customHeight="1">
+      <c r="A230" s="29"/>
+    </row>
+    <row r="231" spans="1:1" ht="18" customHeight="1">
+      <c r="A231" s="29"/>
+    </row>
+    <row r="232" spans="1:1" ht="18" customHeight="1">
+      <c r="A232" s="29"/>
+    </row>
+    <row r="233" spans="1:1" ht="18" customHeight="1">
+      <c r="A233" s="29"/>
+    </row>
+    <row r="234" spans="1:1" ht="18" customHeight="1">
+      <c r="A234" s="29"/>
+    </row>
+    <row r="235" spans="1:1" ht="18" customHeight="1">
+      <c r="A235" s="29"/>
+    </row>
+    <row r="236" spans="1:1" ht="18" customHeight="1">
+      <c r="A236" s="29"/>
+    </row>
+    <row r="237" spans="1:1" ht="18" customHeight="1">
+      <c r="A237" s="29"/>
+    </row>
+    <row r="238" spans="1:1" ht="18" customHeight="1">
+      <c r="A238" s="29"/>
+    </row>
+    <row r="239" spans="1:1" ht="18" customHeight="1">
+      <c r="A239" s="29"/>
+    </row>
+    <row r="240" spans="1:1" ht="18" customHeight="1">
+      <c r="A240" s="29"/>
+    </row>
+    <row r="241" spans="1:1" ht="18" customHeight="1">
+      <c r="A241" s="29"/>
+    </row>
+    <row r="242" spans="1:1" ht="18" customHeight="1">
+      <c r="A242" s="29"/>
+    </row>
+    <row r="243" spans="1:1" ht="18" customHeight="1">
+      <c r="A243" s="29"/>
+    </row>
+    <row r="244" spans="1:1" ht="18" customHeight="1">
+      <c r="A244" s="29"/>
+    </row>
+    <row r="245" spans="1:1" ht="18" customHeight="1">
+      <c r="A245" s="29"/>
+    </row>
+    <row r="246" spans="1:1" ht="18" customHeight="1">
+      <c r="A246" s="29"/>
+    </row>
+    <row r="247" spans="1:1" ht="18" customHeight="1">
+      <c r="A247" s="29"/>
+    </row>
+    <row r="248" spans="1:1" ht="18" customHeight="1">
+      <c r="A248" s="29"/>
+    </row>
+    <row r="249" spans="1:1" ht="18" customHeight="1">
+      <c r="A249" s="29"/>
+    </row>
+    <row r="250" spans="1:1" ht="18" customHeight="1">
+      <c r="A250" s="29"/>
+    </row>
+    <row r="251" spans="1:1" ht="18" customHeight="1">
+      <c r="A251" s="29"/>
+    </row>
+    <row r="252" spans="1:1" ht="18" customHeight="1">
+      <c r="A252" s="29"/>
+    </row>
+    <row r="253" spans="1:1" ht="18" customHeight="1">
+      <c r="A253" s="29"/>
+    </row>
+    <row r="254" spans="1:1" ht="18" customHeight="1">
+      <c r="A254" s="29"/>
+    </row>
+    <row r="255" spans="1:1" ht="18" customHeight="1">
+      <c r="A255" s="29"/>
+    </row>
+    <row r="256" spans="1:1" ht="18" customHeight="1">
+      <c r="A256" s="29"/>
+    </row>
+    <row r="257" spans="1:1" ht="18" customHeight="1">
+      <c r="A257" s="29"/>
+    </row>
+    <row r="258" spans="1:1" ht="18" customHeight="1">
+      <c r="A258" s="29"/>
+    </row>
+    <row r="259" spans="1:1" ht="18" customHeight="1">
+      <c r="A259" s="29"/>
+    </row>
+    <row r="260" spans="1:1" ht="18" customHeight="1">
+      <c r="A260" s="29"/>
+    </row>
+    <row r="261" spans="1:1" ht="18" customHeight="1">
+      <c r="A261" s="29"/>
+    </row>
+    <row r="262" spans="1:1" ht="18" customHeight="1">
+      <c r="A262" s="29"/>
+    </row>
+    <row r="263" spans="1:1" ht="18" customHeight="1">
+      <c r="A263" s="29"/>
+    </row>
+    <row r="264" spans="1:1" ht="18" customHeight="1">
+      <c r="A264" s="29"/>
+    </row>
+    <row r="265" spans="1:1" ht="18" customHeight="1">
+      <c r="A265" s="29"/>
+    </row>
+    <row r="266" spans="1:1" ht="18" customHeight="1">
+      <c r="A266" s="29"/>
+    </row>
+    <row r="267" spans="1:1" ht="18" customHeight="1">
+      <c r="A267" s="29"/>
+    </row>
+    <row r="268" spans="1:1" ht="18" customHeight="1">
+      <c r="A268" s="29"/>
+    </row>
+    <row r="269" spans="1:1" ht="18" customHeight="1">
+      <c r="A269" s="29"/>
+    </row>
+    <row r="270" spans="1:1" ht="18" customHeight="1">
+      <c r="A270" s="29"/>
+    </row>
+    <row r="271" spans="1:1" ht="18" customHeight="1">
+      <c r="A271" s="29"/>
+    </row>
+    <row r="272" spans="1:1" ht="18" customHeight="1">
+      <c r="A272" s="29"/>
+    </row>
+    <row r="273" spans="1:1" ht="18" customHeight="1">
+      <c r="A273" s="29"/>
+    </row>
+    <row r="274" spans="1:1" ht="18" customHeight="1">
+      <c r="A274" s="29"/>
+    </row>
+    <row r="275" spans="1:1" ht="18" customHeight="1">
+      <c r="A275" s="29"/>
+    </row>
+    <row r="276" spans="1:1" ht="18" customHeight="1">
+      <c r="A276" s="29"/>
+    </row>
+    <row r="277" spans="1:1" ht="18" customHeight="1">
+      <c r="A277" s="29"/>
+    </row>
+    <row r="278" spans="1:1" ht="18" customHeight="1">
+      <c r="A278" s="29"/>
+    </row>
+    <row r="279" spans="1:1" ht="18" customHeight="1">
+      <c r="A279" s="29"/>
+    </row>
+    <row r="280" spans="1:1" ht="18" customHeight="1">
+      <c r="A280" s="29"/>
+    </row>
+    <row r="281" spans="1:1" ht="18" customHeight="1">
+      <c r="A281" s="29"/>
+    </row>
+    <row r="282" spans="1:1" ht="18" customHeight="1">
+      <c r="A282" s="29"/>
+    </row>
+    <row r="283" spans="1:1" ht="18" customHeight="1">
+      <c r="A283" s="29"/>
+    </row>
+    <row r="284" spans="1:1" ht="18" customHeight="1">
+      <c r="A284" s="29"/>
+    </row>
+    <row r="285" spans="1:1" ht="18" customHeight="1">
+      <c r="A285" s="29"/>
+    </row>
+    <row r="286" spans="1:1" ht="18" customHeight="1">
+      <c r="A286" s="29"/>
+    </row>
+    <row r="287" spans="1:1" ht="18" customHeight="1">
+      <c r="A287" s="29"/>
+    </row>
+    <row r="288" spans="1:1" ht="18" customHeight="1">
+      <c r="A288" s="29"/>
+    </row>
+    <row r="289" spans="1:1" ht="18" customHeight="1">
+      <c r="A289" s="29"/>
+    </row>
+    <row r="290" spans="1:1" ht="18" customHeight="1">
+      <c r="A290" s="29"/>
+    </row>
+    <row r="291" spans="1:1" ht="18" customHeight="1">
+      <c r="A291" s="29"/>
+    </row>
+    <row r="292" spans="1:1" ht="18" customHeight="1">
+      <c r="A292" s="29"/>
+    </row>
+    <row r="293" spans="1:1" ht="18" customHeight="1">
+      <c r="A293" s="29"/>
+    </row>
+    <row r="294" spans="1:1" ht="18" customHeight="1">
+      <c r="A294" s="29"/>
+    </row>
+    <row r="295" spans="1:1" ht="18" customHeight="1">
+      <c r="A295" s="29"/>
+    </row>
+    <row r="296" spans="1:1" ht="18" customHeight="1">
+      <c r="A296" s="29"/>
+    </row>
+    <row r="297" spans="1:1" ht="18" customHeight="1">
+      <c r="A297" s="29"/>
+    </row>
+    <row r="298" spans="1:1" ht="18" customHeight="1">
+      <c r="A298" s="29"/>
+    </row>
+    <row r="299" spans="1:1" ht="18" customHeight="1">
+      <c r="A299" s="29"/>
+    </row>
+    <row r="300" spans="1:1" ht="18" customHeight="1">
+      <c r="A300" s="29"/>
+    </row>
+    <row r="301" spans="1:1" ht="18" customHeight="1">
+      <c r="A301" s="29"/>
+    </row>
+    <row r="302" spans="1:1" ht="18" customHeight="1">
+      <c r="A302" s="29"/>
+    </row>
+    <row r="303" spans="1:1" ht="18" customHeight="1">
+      <c r="A303" s="29"/>
+    </row>
+    <row r="304" spans="1:1" ht="18" customHeight="1">
+      <c r="A304" s="29"/>
+    </row>
+    <row r="305" spans="1:1" ht="18" customHeight="1">
+      <c r="A305" s="29"/>
+    </row>
+    <row r="306" spans="1:1" ht="18" customHeight="1">
+      <c r="A306" s="29"/>
+    </row>
+    <row r="307" spans="1:1" ht="18" customHeight="1">
+      <c r="A307" s="29"/>
+    </row>
+    <row r="308" spans="1:1" ht="18" customHeight="1">
+      <c r="A308" s="29"/>
+    </row>
+    <row r="309" spans="1:1" ht="18" customHeight="1">
+      <c r="A309" s="29"/>
+    </row>
+    <row r="310" spans="1:1" ht="18" customHeight="1">
+      <c r="A310" s="29"/>
+    </row>
+    <row r="311" spans="1:1" ht="18" customHeight="1">
+      <c r="A311" s="29"/>
+    </row>
+    <row r="312" spans="1:1" ht="18" customHeight="1">
+      <c r="A312" s="29"/>
+    </row>
+    <row r="313" spans="1:1" ht="18" customHeight="1">
+      <c r="A313" s="29"/>
+    </row>
+    <row r="314" spans="1:1" ht="18" customHeight="1">
+      <c r="A314" s="29"/>
+    </row>
+    <row r="315" spans="1:1" ht="18" customHeight="1">
+      <c r="A315" s="29"/>
+    </row>
+    <row r="316" spans="1:1" ht="18" customHeight="1">
+      <c r="A316" s="29"/>
+    </row>
+    <row r="317" spans="1:1" ht="18" customHeight="1">
+      <c r="A317" s="29"/>
+    </row>
+    <row r="318" spans="1:1" ht="18" customHeight="1">
+      <c r="A318" s="29"/>
+    </row>
+    <row r="319" spans="1:1" ht="18" customHeight="1">
+      <c r="A319" s="29"/>
+    </row>
+    <row r="320" spans="1:1" ht="18" customHeight="1">
+      <c r="A320" s="29"/>
+    </row>
+    <row r="321" spans="1:1" ht="18" customHeight="1">
+      <c r="A321" s="29"/>
+    </row>
+    <row r="322" spans="1:1" ht="18" customHeight="1">
+      <c r="A322" s="29"/>
+    </row>
+    <row r="323" spans="1:1" ht="18" customHeight="1">
+      <c r="A323" s="29"/>
+    </row>
+    <row r="324" spans="1:1" ht="18" customHeight="1">
+      <c r="A324" s="29"/>
+    </row>
+    <row r="325" spans="1:1" ht="18" customHeight="1">
+      <c r="A325" s="29"/>
+    </row>
+    <row r="326" spans="1:1" ht="18" customHeight="1">
+      <c r="A326" s="29"/>
+    </row>
+    <row r="327" spans="1:1" ht="18" customHeight="1">
+      <c r="A327" s="29"/>
+    </row>
+    <row r="328" spans="1:1" ht="18" customHeight="1">
+      <c r="A328" s="29"/>
+    </row>
+    <row r="329" spans="1:1" ht="18" customHeight="1">
+      <c r="A329" s="29"/>
+    </row>
+    <row r="330" spans="1:1" ht="18" customHeight="1">
+      <c r="A330" s="29"/>
+    </row>
+    <row r="331" spans="1:1" ht="18" customHeight="1">
+      <c r="A331" s="29"/>
+    </row>
+    <row r="332" spans="1:1" ht="18" customHeight="1">
+      <c r="A332" s="29"/>
+    </row>
+    <row r="333" spans="1:1" ht="18" customHeight="1">
+      <c r="A333" s="29"/>
+    </row>
+    <row r="334" spans="1:1" ht="18" customHeight="1">
+      <c r="A334" s="29"/>
+    </row>
+    <row r="335" spans="1:1" ht="18" customHeight="1">
+      <c r="A335" s="29"/>
+    </row>
+    <row r="336" spans="1:1" ht="18" customHeight="1">
+      <c r="A336" s="29"/>
+    </row>
+    <row r="337" spans="1:1" ht="18" customHeight="1">
+      <c r="A337" s="29"/>
+    </row>
+    <row r="338" spans="1:1" ht="18" customHeight="1">
+      <c r="A338" s="29"/>
+    </row>
+    <row r="339" spans="1:1" ht="18" customHeight="1">
+      <c r="A339" s="29"/>
+    </row>
+    <row r="340" spans="1:1" ht="18" customHeight="1">
+      <c r="A340" s="29"/>
+    </row>
+    <row r="341" spans="1:1" ht="18" customHeight="1">
+      <c r="A341" s="29"/>
+    </row>
+    <row r="342" spans="1:1" ht="18" customHeight="1">
+      <c r="A342" s="29"/>
+    </row>
+    <row r="343" spans="1:1" ht="18" customHeight="1">
+      <c r="A343" s="29"/>
+    </row>
+    <row r="344" spans="1:1" ht="18" customHeight="1">
+      <c r="A344" s="29"/>
+    </row>
+    <row r="345" spans="1:1" ht="18" customHeight="1">
+      <c r="A345" s="29"/>
+    </row>
+    <row r="346" spans="1:1" ht="18" customHeight="1">
+      <c r="A346" s="29"/>
+    </row>
+    <row r="347" spans="1:1" ht="18" customHeight="1">
+      <c r="A347" s="29"/>
+    </row>
+    <row r="348" spans="1:1" ht="18" customHeight="1">
+      <c r="A348" s="29"/>
+    </row>
+    <row r="349" spans="1:1" ht="18" customHeight="1">
+      <c r="A349" s="29"/>
+    </row>
+    <row r="350" spans="1:1" ht="18" customHeight="1">
+      <c r="A350" s="29"/>
+    </row>
+    <row r="351" spans="1:1" ht="18" customHeight="1">
+      <c r="A351" s="29"/>
+    </row>
+    <row r="352" spans="1:1" ht="18" customHeight="1">
+      <c r="A352" s="29"/>
+    </row>
+    <row r="353" spans="1:1" ht="18" customHeight="1">
+      <c r="A353" s="29"/>
+    </row>
+    <row r="354" spans="1:1" ht="18" customHeight="1">
+      <c r="A354" s="29"/>
+    </row>
+    <row r="355" spans="1:1" ht="18" customHeight="1">
+      <c r="A355" s="29"/>
+    </row>
+    <row r="356" spans="1:1" ht="18" customHeight="1">
+      <c r="A356" s="29"/>
+    </row>
+    <row r="357" spans="1:1" ht="18" customHeight="1">
+      <c r="A357" s="29"/>
+    </row>
+    <row r="358" spans="1:1" ht="18" customHeight="1">
+      <c r="A358" s="29"/>
+    </row>
+    <row r="359" spans="1:1" ht="18" customHeight="1">
+      <c r="A359" s="29"/>
+    </row>
+    <row r="360" spans="1:1" ht="18" customHeight="1">
+      <c r="A360" s="29"/>
+    </row>
+    <row r="361" spans="1:1" ht="18" customHeight="1">
+      <c r="A361" s="29"/>
+    </row>
+    <row r="362" spans="1:1" ht="18" customHeight="1">
+      <c r="A362" s="29"/>
+    </row>
+    <row r="363" spans="1:1" ht="18" customHeight="1">
+      <c r="A363" s="29"/>
+    </row>
+    <row r="364" spans="1:1" ht="18" customHeight="1">
+      <c r="A364" s="29"/>
+    </row>
+    <row r="365" spans="1:1" ht="18" customHeight="1">
+      <c r="A365" s="29"/>
+    </row>
+    <row r="366" spans="1:1" ht="18" customHeight="1">
+      <c r="A366" s="29"/>
+    </row>
+    <row r="367" spans="1:1" ht="18" customHeight="1">
+      <c r="A367" s="29"/>
+    </row>
+    <row r="368" spans="1:1" ht="18" customHeight="1">
+      <c r="A368" s="29"/>
+    </row>
+    <row r="369" spans="1:1" ht="18" customHeight="1">
+      <c r="A369" s="29"/>
+    </row>
+    <row r="370" spans="1:1" ht="18" customHeight="1">
+      <c r="A370" s="29"/>
+    </row>
+    <row r="371" spans="1:1" ht="18" customHeight="1">
+      <c r="A371" s="29"/>
+    </row>
+    <row r="372" spans="1:1" ht="18" customHeight="1">
+      <c r="A372" s="29"/>
+    </row>
+    <row r="373" spans="1:1" ht="18" customHeight="1">
+      <c r="A373" s="29"/>
+    </row>
+    <row r="374" spans="1:1" ht="18" customHeight="1">
+      <c r="A374" s="29"/>
+    </row>
+    <row r="375" spans="1:1" ht="18" customHeight="1">
+      <c r="A375" s="29"/>
+    </row>
+    <row r="376" spans="1:1" ht="18" customHeight="1">
+      <c r="A376" s="29"/>
+    </row>
+    <row r="377" spans="1:1" ht="18" customHeight="1">
+      <c r="A377" s="29"/>
+    </row>
+    <row r="378" spans="1:1" ht="18" customHeight="1">
+      <c r="A378" s="29"/>
+    </row>
+    <row r="379" spans="1:1" ht="18" customHeight="1">
+      <c r="A379" s="29"/>
+    </row>
+    <row r="380" spans="1:1" ht="18" customHeight="1">
+      <c r="A380" s="29"/>
+    </row>
+    <row r="381" spans="1:1" ht="18" customHeight="1">
+      <c r="A381" s="29"/>
+    </row>
+    <row r="382" spans="1:1" ht="18" customHeight="1">
+      <c r="A382" s="29"/>
+    </row>
+    <row r="383" spans="1:1" ht="18" customHeight="1">
+      <c r="A383" s="29"/>
+    </row>
+    <row r="384" spans="1:1" ht="18" customHeight="1">
+      <c r="A384" s="29"/>
+    </row>
+    <row r="385" spans="1:1" ht="18" customHeight="1">
+      <c r="A385" s="29"/>
+    </row>
+    <row r="386" spans="1:1" ht="18" customHeight="1">
+      <c r="A386" s="29"/>
+    </row>
+    <row r="387" spans="1:1" ht="18" customHeight="1">
+      <c r="A387" s="29"/>
+    </row>
+    <row r="388" spans="1:1" ht="18" customHeight="1">
+      <c r="A388" s="29"/>
+    </row>
+    <row r="389" spans="1:1" ht="18" customHeight="1">
+      <c r="A389" s="29"/>
+    </row>
+    <row r="390" spans="1:1" ht="18" customHeight="1">
+      <c r="A390" s="29"/>
+    </row>
+    <row r="391" spans="1:1" ht="18" customHeight="1">
+      <c r="A391" s="29"/>
+    </row>
+    <row r="392" spans="1:1" ht="18" customHeight="1">
+      <c r="A392" s="29"/>
+    </row>
+    <row r="393" spans="1:1" ht="18" customHeight="1">
+      <c r="A393" s="29"/>
+    </row>
+    <row r="394" spans="1:1" ht="18" customHeight="1">
+      <c r="A394" s="29"/>
+    </row>
+    <row r="395" spans="1:1" ht="18" customHeight="1">
+      <c r="A395" s="29"/>
+    </row>
+    <row r="396" spans="1:1" ht="18" customHeight="1">
+      <c r="A396" s="29"/>
+    </row>
+    <row r="397" spans="1:1" ht="18" customHeight="1">
+      <c r="A397" s="29"/>
+    </row>
+    <row r="398" spans="1:1" ht="18" customHeight="1">
+      <c r="A398" s="29"/>
+    </row>
+    <row r="399" spans="1:1" ht="18" customHeight="1">
+      <c r="A399" s="29"/>
+    </row>
+    <row r="400" spans="1:1" ht="18" customHeight="1">
+      <c r="A400" s="29"/>
+    </row>
+    <row r="401" spans="1:1" ht="18" customHeight="1">
+      <c r="A401" s="29"/>
+    </row>
+    <row r="402" spans="1:1" ht="18" customHeight="1">
+      <c r="A402" s="29"/>
+    </row>
+    <row r="403" spans="1:1" ht="18" customHeight="1">
+      <c r="A403" s="29"/>
+    </row>
+    <row r="404" spans="1:1" ht="18" customHeight="1">
+      <c r="A404" s="29"/>
+    </row>
+    <row r="405" spans="1:1" ht="18" customHeight="1">
+      <c r="A405" s="29"/>
+    </row>
+    <row r="406" spans="1:1" ht="18" customHeight="1">
+      <c r="A406" s="29"/>
+    </row>
+    <row r="407" spans="1:1" ht="18" customHeight="1">
+      <c r="A407" s="29"/>
+    </row>
+    <row r="408" spans="1:1" ht="18" customHeight="1">
+      <c r="A408" s="29"/>
+    </row>
+    <row r="409" spans="1:1" ht="18" customHeight="1">
+      <c r="A409" s="29"/>
+    </row>
+    <row r="410" spans="1:1" ht="18" customHeight="1">
+      <c r="A410" s="29"/>
+    </row>
+    <row r="411" spans="1:1" ht="18" customHeight="1">
+      <c r="A411" s="29"/>
+    </row>
+    <row r="412" spans="1:1" ht="18" customHeight="1">
+      <c r="A412" s="29"/>
+    </row>
+    <row r="413" spans="1:1" ht="18" customHeight="1">
+      <c r="A413" s="29"/>
+    </row>
+    <row r="414" spans="1:1" ht="18" customHeight="1">
+      <c r="A414" s="29"/>
+    </row>
+    <row r="415" spans="1:1" ht="18" customHeight="1">
+      <c r="A415" s="29"/>
+    </row>
+    <row r="416" spans="1:1" ht="18" customHeight="1">
+      <c r="A416" s="29"/>
+    </row>
+    <row r="417" spans="1:1" ht="18" customHeight="1">
+      <c r="A417" s="29"/>
+    </row>
+    <row r="418" spans="1:1" ht="18" customHeight="1">
+      <c r="A418" s="29"/>
+    </row>
+    <row r="419" spans="1:1" ht="18" customHeight="1">
+      <c r="A419" s="29"/>
+    </row>
+    <row r="420" spans="1:1" ht="18" customHeight="1">
+      <c r="A420" s="29"/>
+    </row>
+    <row r="421" spans="1:1" ht="18" customHeight="1">
+      <c r="A421" s="29"/>
+    </row>
+    <row r="422" spans="1:1" ht="18" customHeight="1">
+      <c r="A422" s="29"/>
+    </row>
+    <row r="423" spans="1:1" ht="18" customHeight="1">
+      <c r="A423" s="29"/>
+    </row>
+    <row r="424" spans="1:1" ht="18" customHeight="1">
+      <c r="A424" s="29"/>
+    </row>
+    <row r="425" spans="1:1" ht="18" customHeight="1">
+      <c r="A425" s="29"/>
+    </row>
+    <row r="426" spans="1:1" ht="18" customHeight="1">
+      <c r="A426" s="29"/>
+    </row>
+    <row r="427" spans="1:1" ht="18" customHeight="1">
+      <c r="A427" s="29"/>
+    </row>
+    <row r="428" spans="1:1" ht="18" customHeight="1">
+      <c r="A428" s="29"/>
+    </row>
+    <row r="429" spans="1:1" ht="18" customHeight="1">
+      <c r="A429" s="29"/>
+    </row>
+    <row r="430" spans="1:1" ht="18" customHeight="1">
+      <c r="A430" s="29"/>
+    </row>
+    <row r="431" spans="1:1" ht="18" customHeight="1">
+      <c r="A431" s="29"/>
+    </row>
+    <row r="432" spans="1:1" ht="18" customHeight="1">
+      <c r="A432" s="29"/>
+    </row>
+    <row r="433" spans="1:1" ht="18" customHeight="1">
+      <c r="A433" s="29"/>
+    </row>
+    <row r="434" spans="1:1" ht="18" customHeight="1">
+      <c r="A434" s="29"/>
+    </row>
+    <row r="435" spans="1:1" ht="18" customHeight="1">
+      <c r="A435" s="29"/>
+    </row>
+    <row r="436" spans="1:1" ht="18" customHeight="1">
+      <c r="A436" s="29"/>
+    </row>
+    <row r="437" spans="1:1" ht="18" customHeight="1">
+      <c r="A437" s="29"/>
+    </row>
+    <row r="438" spans="1:1" ht="18" customHeight="1">
+      <c r="A438" s="29"/>
+    </row>
+    <row r="439" spans="1:1" ht="18" customHeight="1">
+      <c r="A439" s="29"/>
+    </row>
+    <row r="440" spans="1:1" ht="18" customHeight="1">
+      <c r="A440" s="29"/>
+    </row>
+    <row r="441" spans="1:1" ht="18" customHeight="1">
+      <c r="A441" s="29"/>
+    </row>
+    <row r="442" spans="1:1" ht="18" customHeight="1">
+      <c r="A442" s="29"/>
+    </row>
+    <row r="443" spans="1:1" ht="18" customHeight="1">
+      <c r="A443" s="29"/>
+    </row>
+    <row r="444" spans="1:1" ht="18" customHeight="1">
+      <c r="A444" s="29"/>
+    </row>
+    <row r="445" spans="1:1" ht="18" customHeight="1">
+      <c r="A445" s="29"/>
+    </row>
+    <row r="446" spans="1:1" ht="18" customHeight="1">
+      <c r="A446" s="29"/>
+    </row>
+    <row r="447" spans="1:1" ht="18" customHeight="1">
+      <c r="A447" s="29"/>
+    </row>
+    <row r="448" spans="1:1" ht="18" customHeight="1">
+      <c r="A448" s="29"/>
+    </row>
+    <row r="449" spans="1:1" ht="18" customHeight="1">
+      <c r="A449" s="29"/>
+    </row>
+    <row r="450" spans="1:1" ht="18" customHeight="1">
+      <c r="A450" s="29"/>
+    </row>
+    <row r="451" spans="1:1" ht="18" customHeight="1">
+      <c r="A451" s="29"/>
+    </row>
+    <row r="452" spans="1:1" ht="18" customHeight="1">
+      <c r="A452" s="29"/>
+    </row>
+    <row r="453" spans="1:1" ht="18" customHeight="1">
+      <c r="A453" s="29"/>
+    </row>
+    <row r="454" spans="1:1" ht="18" customHeight="1">
+      <c r="A454" s="29"/>
+    </row>
+    <row r="455" spans="1:1" ht="18" customHeight="1">
+      <c r="A455" s="29"/>
+    </row>
+    <row r="456" spans="1:1" ht="18" customHeight="1">
+      <c r="A456" s="29"/>
+    </row>
+    <row r="457" spans="1:1" ht="18" customHeight="1">
+      <c r="A457" s="29"/>
+    </row>
+    <row r="458" spans="1:1" ht="18" customHeight="1">
+      <c r="A458" s="29"/>
+    </row>
+    <row r="459" spans="1:1" ht="18" customHeight="1">
+      <c r="A459" s="29"/>
+    </row>
+    <row r="460" spans="1:1" ht="18" customHeight="1">
+      <c r="A460" s="29"/>
+    </row>
+    <row r="461" spans="1:1" ht="18" customHeight="1">
+      <c r="A461" s="29"/>
+    </row>
+    <row r="462" spans="1:1" ht="18" customHeight="1">
+      <c r="A462" s="29"/>
+    </row>
+    <row r="463" spans="1:1" ht="18" customHeight="1">
+      <c r="A463" s="29"/>
+    </row>
+    <row r="464" spans="1:1" ht="18" customHeight="1">
+      <c r="A464" s="29"/>
+    </row>
+    <row r="465" spans="1:1" ht="18" customHeight="1">
+      <c r="A465" s="29"/>
+    </row>
+    <row r="466" spans="1:1" ht="18" customHeight="1">
+      <c r="A466" s="29"/>
+    </row>
+    <row r="467" spans="1:1" ht="18" customHeight="1">
+      <c r="A467" s="29"/>
+    </row>
+    <row r="468" spans="1:1" ht="18" customHeight="1">
+      <c r="A468" s="29"/>
+    </row>
+    <row r="469" spans="1:1" ht="18" customHeight="1">
+      <c r="A469" s="29"/>
+    </row>
+    <row r="470" spans="1:1" ht="18" customHeight="1">
+      <c r="A470" s="29"/>
+    </row>
+    <row r="471" spans="1:1" ht="18" customHeight="1">
+      <c r="A471" s="29"/>
+    </row>
+    <row r="472" spans="1:1" ht="18" customHeight="1">
+      <c r="A472" s="29"/>
+    </row>
+    <row r="473" spans="1:1" ht="18" customHeight="1">
+      <c r="A473" s="29"/>
+    </row>
+    <row r="474" spans="1:1" ht="18" customHeight="1">
+      <c r="A474" s="29"/>
+    </row>
+    <row r="475" spans="1:1" ht="18" customHeight="1">
+      <c r="A475" s="29"/>
+    </row>
+    <row r="476" spans="1:1" ht="18" customHeight="1">
+      <c r="A476" s="29"/>
+    </row>
+    <row r="477" spans="1:1" ht="18" customHeight="1">
+      <c r="A477" s="29"/>
+    </row>
+    <row r="478" spans="1:1" ht="18" customHeight="1">
+      <c r="A478" s="29"/>
+    </row>
+    <row r="479" spans="1:1" ht="18" customHeight="1">
+      <c r="A479" s="29"/>
+    </row>
+    <row r="480" spans="1:1" ht="18" customHeight="1">
+      <c r="A480" s="29"/>
+    </row>
+    <row r="481" spans="1:1" ht="18" customHeight="1">
+      <c r="A481" s="29"/>
+    </row>
+    <row r="482" spans="1:1" ht="18" customHeight="1">
+      <c r="A482" s="29"/>
+    </row>
+    <row r="483" spans="1:1" ht="18" customHeight="1">
+      <c r="A483" s="29"/>
+    </row>
+    <row r="484" spans="1:1" ht="18" customHeight="1">
+      <c r="A484" s="29"/>
+    </row>
+    <row r="485" spans="1:1" ht="18" customHeight="1">
+      <c r="A485" s="29"/>
+    </row>
+    <row r="486" spans="1:1" ht="18" customHeight="1">
+      <c r="A486" s="29"/>
+    </row>
+    <row r="487" spans="1:1" ht="18" customHeight="1">
+      <c r="A487" s="29"/>
+    </row>
+    <row r="488" spans="1:1" ht="18" customHeight="1">
+      <c r="A488" s="29"/>
+    </row>
+    <row r="489" spans="1:1" ht="18" customHeight="1">
+      <c r="A489" s="29"/>
+    </row>
+    <row r="490" spans="1:1" ht="18" customHeight="1">
+      <c r="A490" s="29"/>
+    </row>
+    <row r="491" spans="1:1" ht="18" customHeight="1">
+      <c r="A491" s="29"/>
+    </row>
+    <row r="492" spans="1:1" ht="18" customHeight="1">
+      <c r="A492" s="29"/>
+    </row>
+    <row r="493" spans="1:1" ht="18" customHeight="1">
+      <c r="A493" s="29"/>
+    </row>
+    <row r="494" spans="1:1" ht="18" customHeight="1">
+      <c r="A494" s="29"/>
+    </row>
+    <row r="495" spans="1:1" ht="18" customHeight="1">
+      <c r="A495" s="29"/>
+    </row>
+    <row r="496" spans="1:1" ht="18" customHeight="1">
+      <c r="A496" s="29"/>
+    </row>
+    <row r="497" spans="1:1" ht="18" customHeight="1">
+      <c r="A497" s="29"/>
+    </row>
+    <row r="498" spans="1:1" ht="18" customHeight="1">
+      <c r="A498" s="29"/>
+    </row>
+    <row r="499" spans="1:1" ht="18" customHeight="1">
+      <c r="A499" s="29"/>
+    </row>
+    <row r="500" spans="1:1" ht="18" customHeight="1">
+      <c r="A500" s="29"/>
+    </row>
+    <row r="501" spans="1:1" ht="18" customHeight="1">
+      <c r="A501" s="29"/>
+    </row>
+    <row r="502" spans="1:1" ht="18" customHeight="1">
+      <c r="A502" s="29"/>
+    </row>
+    <row r="503" spans="1:1" ht="18" customHeight="1">
+      <c r="A503" s="29"/>
+    </row>
+    <row r="504" spans="1:1" ht="18" customHeight="1">
+      <c r="A504" s="29"/>
+    </row>
+    <row r="505" spans="1:1" ht="18" customHeight="1">
+      <c r="A505" s="29"/>
+    </row>
+    <row r="506" spans="1:1" ht="18" customHeight="1">
+      <c r="A506" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
